--- a/src/test/Resources/ulkeler.xlsx
+++ b/src/test/Resources/ulkeler.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="579">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1751,12 +1751,19 @@
   </si>
   <si>
     <t>54000</t>
+  </si>
+  <si>
+    <t>23000</t>
+  </si>
+  <si>
+    <t>13000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2185,7 +2192,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2277,6 +2284,9 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E6" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -2422,6 +2432,9 @@
       </c>
       <c r="D16" s="8" t="s">
         <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
